--- a/test/data3/in.xlsx
+++ b/test/data3/in.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/r-inoguchi/Documents/workspace/pptx-template/test/data3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C183B68-39F6-9F43-971D-50D4EA01FEFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2F980D-2126-A849-9FE1-072CD50398DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21960" yWindow="-19680" windowWidth="30320" windowHeight="17820" xr2:uid="{4B2C0C59-2D76-3D40-9D70-9256117A4609}"/>
+    <workbookView xWindow="22840" yWindow="-18480" windowWidth="30320" windowHeight="17820" xr2:uid="{4B2C0C59-2D76-3D40-9D70-9256117A4609}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="110">
   <si>
     <t>SlideId</t>
   </si>
@@ -453,12 +453,33 @@
     <t>NumberFormat:0%</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>p3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X の値</t>
+  </si>
+  <si>
+    <t>Y の値</t>
+  </si>
+  <si>
+    <t>postfix</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加部分</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -517,6 +538,14 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -558,7 +587,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -594,6 +623,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -910,11 +942,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4D03DD-1A21-9E46-AB79-462DC707B4C6}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -1158,6 +1188,47 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="e">
+        <f>集計結果!B91:C94</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1167,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B70D7C-20C1-F04D-B024-5074C518766C}">
-  <dimension ref="A1:M87"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91:C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" customHeight="1"/>
@@ -2489,7 +2560,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="81" spans="4:13" ht="16" customHeight="1">
+    <row r="81" spans="1:13" ht="16" customHeight="1">
       <c r="D81" s="9" t="s">
         <v>86</v>
       </c>
@@ -2526,7 +2597,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="82" spans="4:13" ht="16" customHeight="1">
+    <row r="82" spans="1:13" ht="16" customHeight="1">
       <c r="D82" s="9" t="s">
         <v>86</v>
       </c>
@@ -2563,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="4:13" ht="16" customHeight="1">
+    <row r="83" spans="1:13" ht="16" customHeight="1">
       <c r="D83" s="9" t="s">
         <v>86</v>
       </c>
@@ -2600,7 +2671,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="84" spans="4:13" ht="16" customHeight="1">
+    <row r="84" spans="1:13" ht="16" customHeight="1">
       <c r="D84" s="9" t="s">
         <v>86</v>
       </c>
@@ -2637,7 +2708,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="85" spans="4:13" ht="16" customHeight="1">
+    <row r="85" spans="1:13" ht="16" customHeight="1">
       <c r="D85" s="9" t="s">
         <v>86</v>
       </c>
@@ -2674,7 +2745,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="86" spans="4:13" ht="16" customHeight="1">
+    <row r="86" spans="1:13" ht="16" customHeight="1">
       <c r="D86" s="9" t="s">
         <v>86</v>
       </c>
@@ -2711,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="4:13" ht="16" customHeight="1">
+    <row r="87" spans="1:13" ht="16" customHeight="1">
       <c r="D87" s="9" t="s">
         <v>86</v>
       </c>
@@ -2746,6 +2817,48 @@
       <c r="M87" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="16" customHeight="1">
+      <c r="A89" t="s">
+        <v>105</v>
+      </c>
+      <c r="C89"/>
+    </row>
+    <row r="90" spans="1:13" ht="16" customHeight="1">
+      <c r="B90"/>
+      <c r="C90"/>
+    </row>
+    <row r="91" spans="1:13" ht="16" customHeight="1">
+      <c r="B91" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="16" customHeight="1">
+      <c r="B92" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="C92" s="12">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="16" customHeight="1">
+      <c r="B93" s="12">
+        <v>1.8</v>
+      </c>
+      <c r="C93" s="12">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="16" customHeight="1">
+      <c r="B94" s="12">
+        <v>2.6</v>
+      </c>
+      <c r="C94" s="12">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/test/data3/in.xlsx
+++ b/test/data3/in.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/r-inoguchi/Documents/workspace/pptx-template/test/data3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2F980D-2126-A849-9FE1-072CD50398DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD59F2FE-DFCE-7847-AB78-06E4DE534FF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22840" yWindow="-18480" windowWidth="30320" windowHeight="17820" xr2:uid="{4B2C0C59-2D76-3D40-9D70-9256117A4609}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="111">
   <si>
     <t>SlideId</t>
   </si>
@@ -472,6 +472,10 @@
     <rPh sb="0" eb="2">
       <t>ツイカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XYTranspose</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -944,7 +948,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4D03DD-1A21-9E46-AB79-462DC707B4C6}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -1213,7 +1219,9 @@
         <f>集計結果!B91:C94</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1"/>
